--- a/SA_Capacity_Costs/SA_Capacity_Costs_LPLB.xlsx
+++ b/SA_Capacity_Costs/SA_Capacity_Costs_LPLB.xlsx
@@ -521,22 +521,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6.030000000000001</v>
+        <v>6.773899999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>2.1573</v>
+        <v>2.5395</v>
       </c>
       <c r="D2" t="n">
-        <v>31.8616</v>
+        <v>31.21515</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>26.65865</v>
+        <v>26.75185</v>
       </c>
       <c r="G2" t="n">
-        <v>26.65865</v>
+        <v>26.75185</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -548,16 +548,16 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>54.6352</v>
+        <v>34.7684</v>
       </c>
       <c r="L2" t="n">
-        <v>26.659</v>
+        <v>26.752</v>
       </c>
       <c r="M2" t="n">
-        <v>27.9762</v>
+        <v>8.016400000000001</v>
       </c>
       <c r="N2" t="n">
-        <v>27.9762</v>
+        <v>8.016400000000001</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -570,43 +570,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.427</v>
+        <v>16.791</v>
       </c>
       <c r="C3" t="n">
-        <v>6.843</v>
+        <v>3.059</v>
       </c>
       <c r="D3" t="n">
-        <v>18.77</v>
+        <v>53.788</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>26.294</v>
+        <v>29.489</v>
       </c>
       <c r="G3" t="n">
-        <v>26.294</v>
+        <v>28.437</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.052</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.052</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>65.34480000000001</v>
+        <v>29.4246</v>
       </c>
       <c r="L3" t="n">
-        <v>26.294</v>
+        <v>28.437</v>
       </c>
       <c r="M3" t="n">
-        <v>39.0508</v>
+        <v>0.9875999999999999</v>
       </c>
       <c r="N3" t="n">
-        <v>39.0508</v>
+        <v>0.9875999999999999</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -619,22 +619,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>27.296</v>
+        <v>33.063</v>
       </c>
       <c r="C4" t="n">
-        <v>3.025</v>
+        <v>3.664</v>
       </c>
       <c r="D4" t="n">
-        <v>52.278</v>
+        <v>50.966</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>35.24</v>
+        <v>37.111</v>
       </c>
       <c r="G4" t="n">
-        <v>35.24038630136986</v>
+        <v>37.11101095890411</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -646,10 +646,10 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>29.659</v>
+        <v>30.351</v>
       </c>
       <c r="L4" t="n">
-        <v>29.659</v>
+        <v>30.351</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -764,22 +764,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5.590850000000001</v>
+        <v>6.105850000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>2.126</v>
+        <v>2.4228</v>
       </c>
       <c r="D2" t="n">
-        <v>31.4475</v>
+        <v>31.0095</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>26.59625</v>
+        <v>26.66245</v>
       </c>
       <c r="G2" t="n">
-        <v>26.59625</v>
+        <v>26.66245</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -791,19 +791,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>58.09780000000001</v>
+        <v>190.6856</v>
       </c>
       <c r="L2" t="n">
-        <v>26.596</v>
+        <v>26.662</v>
       </c>
       <c r="M2" t="n">
-        <v>31.5018</v>
+        <v>164.0236</v>
       </c>
       <c r="N2" t="n">
-        <v>31.5018</v>
+        <v>9.095200000000002</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>154.9282</v>
       </c>
     </row>
     <row r="3">
@@ -813,46 +813,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.427</v>
+        <v>13.982</v>
       </c>
       <c r="C3" t="n">
-        <v>6.843</v>
+        <v>3.332</v>
       </c>
       <c r="D3" t="n">
-        <v>18.77</v>
+        <v>53.656</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>26.294</v>
+        <v>28.598</v>
       </c>
       <c r="G3" t="n">
-        <v>26.294</v>
+        <v>28.111</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>0.487</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>0.487</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>176.1836</v>
+        <v>33.9136</v>
       </c>
       <c r="L3" t="n">
-        <v>26.294</v>
+        <v>28.111</v>
       </c>
       <c r="M3" t="n">
-        <v>149.8896</v>
+        <v>5.8026</v>
       </c>
       <c r="N3" t="n">
-        <v>36.3216</v>
+        <v>5.8026</v>
       </c>
       <c r="O3" t="n">
-        <v>113.568</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -862,22 +862,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19.72</v>
+        <v>19.701</v>
       </c>
       <c r="C4" t="n">
-        <v>2.188</v>
+        <v>2.777</v>
       </c>
       <c r="D4" t="n">
-        <v>55.131</v>
+        <v>53.925</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>32.806</v>
+        <v>32.838</v>
       </c>
       <c r="G4" t="n">
-        <v>32.80646301369863</v>
+        <v>32.83793698630137</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -889,16 +889,16 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>35.3036</v>
+        <v>32.2304</v>
       </c>
       <c r="L4" t="n">
         <v>28.774</v>
       </c>
       <c r="M4" t="n">
-        <v>6.5296</v>
+        <v>3.4564</v>
       </c>
       <c r="N4" t="n">
-        <v>6.5296</v>
+        <v>3.4564</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -1007,22 +1007,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6.92345</v>
+        <v>7.60445</v>
       </c>
       <c r="C2" t="n">
-        <v>2.19225</v>
+        <v>2.5658</v>
       </c>
       <c r="D2" t="n">
-        <v>29.6506</v>
+        <v>29.0083</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>26.72155</v>
+        <v>26.8069</v>
       </c>
       <c r="G2" t="n">
-        <v>26.72155</v>
+        <v>26.8069</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -1034,16 +1034,16 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>45.46320000000001</v>
+        <v>33.338</v>
       </c>
       <c r="L2" t="n">
-        <v>26.722</v>
+        <v>26.807</v>
       </c>
       <c r="M2" t="n">
-        <v>18.7412</v>
+        <v>6.531000000000001</v>
       </c>
       <c r="N2" t="n">
-        <v>18.7412</v>
+        <v>6.531000000000001</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -1056,43 +1056,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.427</v>
+        <v>19.701</v>
       </c>
       <c r="C3" t="n">
-        <v>6.843</v>
+        <v>2.777</v>
       </c>
       <c r="D3" t="n">
-        <v>18.77</v>
+        <v>53.925</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>26.294</v>
+        <v>29.638</v>
       </c>
       <c r="G3" t="n">
-        <v>26.294</v>
+        <v>28.774</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>0.864</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>0.864</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>59.2188</v>
+        <v>28.774</v>
       </c>
       <c r="L3" t="n">
-        <v>26.294</v>
+        <v>28.774</v>
       </c>
       <c r="M3" t="n">
-        <v>32.9248</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>32.9248</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -1105,22 +1105,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>27.296</v>
+        <v>33.063</v>
       </c>
       <c r="C4" t="n">
-        <v>3.025</v>
+        <v>3.664</v>
       </c>
       <c r="D4" t="n">
-        <v>52.278</v>
+        <v>50.966</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>35.24</v>
+        <v>37.111</v>
       </c>
       <c r="G4" t="n">
-        <v>35.24038630136986</v>
+        <v>37.11101095890411</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -1132,10 +1132,10 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>29.659</v>
+        <v>30.351</v>
       </c>
       <c r="L4" t="n">
-        <v>29.659</v>
+        <v>30.351</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -1250,22 +1250,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7.36995</v>
+        <v>8.1694</v>
       </c>
       <c r="C2" t="n">
-        <v>1.80095</v>
+        <v>2.20705</v>
       </c>
       <c r="D2" t="n">
-        <v>31.1078</v>
+        <v>30.5072</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>26.78680000000001</v>
+        <v>26.88870000000001</v>
       </c>
       <c r="G2" t="n">
-        <v>26.78680000000001</v>
+        <v>26.88870000000001</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -1277,16 +1277,16 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>36.0354</v>
+        <v>29.6126</v>
       </c>
       <c r="L2" t="n">
-        <v>26.787</v>
+        <v>26.889</v>
       </c>
       <c r="M2" t="n">
-        <v>9.2484</v>
+        <v>2.7236</v>
       </c>
       <c r="N2" t="n">
-        <v>9.2484</v>
+        <v>2.7236</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -1299,43 +1299,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.427</v>
+        <v>19.701</v>
       </c>
       <c r="C3" t="n">
-        <v>6.843</v>
+        <v>2.777</v>
       </c>
       <c r="D3" t="n">
-        <v>18.77</v>
+        <v>53.925</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>26.294</v>
+        <v>29.638</v>
       </c>
       <c r="G3" t="n">
-        <v>26.294</v>
+        <v>28.774</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>0.864</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>0.864</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>37.9362</v>
+        <v>28.774</v>
       </c>
       <c r="L3" t="n">
-        <v>26.294</v>
+        <v>28.774</v>
       </c>
       <c r="M3" t="n">
-        <v>11.6422</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>11.6422</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -1348,22 +1348,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>27.296</v>
+        <v>33.063</v>
       </c>
       <c r="C4" t="n">
-        <v>3.025</v>
+        <v>3.664</v>
       </c>
       <c r="D4" t="n">
-        <v>52.278</v>
+        <v>50.966</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>35.24</v>
+        <v>37.111</v>
       </c>
       <c r="G4" t="n">
-        <v>35.24038630136986</v>
+        <v>37.11101095890411</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -1375,10 +1375,10 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>29.659</v>
+        <v>30.351</v>
       </c>
       <c r="L4" t="n">
-        <v>29.659</v>
+        <v>30.351</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -1493,22 +1493,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7.235550000000001</v>
+        <v>7.9104</v>
       </c>
       <c r="C2" t="n">
-        <v>1.9353</v>
+        <v>2.18885</v>
       </c>
       <c r="D2" t="n">
-        <v>30.9533</v>
+        <v>30.69804999999999</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>26.77375</v>
+        <v>26.8609</v>
       </c>
       <c r="G2" t="n">
-        <v>26.77375</v>
+        <v>26.8609</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -1520,19 +1520,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>38.0958</v>
+        <v>75.6074</v>
       </c>
       <c r="L2" t="n">
-        <v>26.774</v>
+        <v>26.861</v>
       </c>
       <c r="M2" t="n">
-        <v>11.3218</v>
+        <v>48.7464</v>
       </c>
       <c r="N2" t="n">
-        <v>11.3218</v>
+        <v>3.4554</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>45.291</v>
       </c>
     </row>
     <row r="3">
@@ -1542,46 +1542,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.671</v>
+        <v>19.72</v>
       </c>
       <c r="C3" t="n">
-        <v>1.328</v>
+        <v>2.185</v>
       </c>
       <c r="D3" t="n">
-        <v>25.632</v>
+        <v>53.488</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>26.211</v>
+        <v>29.603</v>
       </c>
       <c r="G3" t="n">
-        <v>26.211</v>
+        <v>28.74</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>0.863</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>0.863</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>60.0702</v>
+        <v>40.7422</v>
       </c>
       <c r="L3" t="n">
-        <v>26.211</v>
+        <v>28.74</v>
       </c>
       <c r="M3" t="n">
-        <v>33.8592</v>
+        <v>12.0022</v>
       </c>
       <c r="N3" t="n">
-        <v>28.5312</v>
+        <v>0.196</v>
       </c>
       <c r="O3" t="n">
-        <v>5.3278</v>
+        <v>11.8062</v>
       </c>
     </row>
     <row r="4">
@@ -1591,22 +1591,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>27.296</v>
+        <v>33.063</v>
       </c>
       <c r="C4" t="n">
-        <v>3.025</v>
+        <v>3.664</v>
       </c>
       <c r="D4" t="n">
-        <v>51.765</v>
+        <v>50.454</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>35.23</v>
+        <v>37.1</v>
       </c>
       <c r="G4" t="n">
-        <v>35.22983835616439</v>
+        <v>37.10048493150685</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -1618,16 +1618,16 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>29.7954</v>
+        <v>30.3838</v>
       </c>
       <c r="L4" t="n">
-        <v>29.649</v>
+        <v>30.34</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1464</v>
+        <v>0.0438</v>
       </c>
       <c r="N4" t="n">
-        <v>0.1464</v>
+        <v>0.0438</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>

--- a/SA_Capacity_Costs/SA_Capacity_Costs_LPLB.xlsx
+++ b/SA_Capacity_Costs/SA_Capacity_Costs_LPLB.xlsx
@@ -521,22 +521,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6.773899999999999</v>
+        <v>6.839249999999998</v>
       </c>
       <c r="C2" t="n">
-        <v>2.5395</v>
+        <v>2.677449999999999</v>
       </c>
       <c r="D2" t="n">
-        <v>31.21515</v>
+        <v>30.92719999999999</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>26.75185</v>
+        <v>25.4711</v>
       </c>
       <c r="G2" t="n">
-        <v>26.75185</v>
+        <v>25.4711</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -548,16 +548,16 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>34.7684</v>
+        <v>33.4516</v>
       </c>
       <c r="L2" t="n">
-        <v>26.752</v>
+        <v>25.471</v>
       </c>
       <c r="M2" t="n">
-        <v>8.016400000000001</v>
+        <v>7.9806</v>
       </c>
       <c r="N2" t="n">
-        <v>8.016400000000001</v>
+        <v>7.9806</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -570,43 +570,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16.791</v>
+        <v>16.919</v>
       </c>
       <c r="C3" t="n">
-        <v>3.059</v>
+        <v>4.097</v>
       </c>
       <c r="D3" t="n">
-        <v>53.788</v>
+        <v>51.64</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>29.489</v>
+        <v>28.217</v>
       </c>
       <c r="G3" t="n">
-        <v>28.437</v>
+        <v>27.166</v>
       </c>
       <c r="H3" t="n">
-        <v>1.052</v>
+        <v>1.05</v>
       </c>
       <c r="I3" t="n">
-        <v>1.052</v>
+        <v>1.05</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>29.4246</v>
+        <v>28.1494</v>
       </c>
       <c r="L3" t="n">
-        <v>28.437</v>
+        <v>27.167</v>
       </c>
       <c r="M3" t="n">
-        <v>0.9875999999999999</v>
+        <v>0.9823999999999999</v>
       </c>
       <c r="N3" t="n">
-        <v>0.9875999999999999</v>
+        <v>0.9823999999999999</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -619,22 +619,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>33.063</v>
+        <v>33.213</v>
       </c>
       <c r="C4" t="n">
-        <v>3.664</v>
+        <v>9.318</v>
       </c>
       <c r="D4" t="n">
-        <v>50.966</v>
+        <v>39.359</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>37.111</v>
+        <v>36.229</v>
       </c>
       <c r="G4" t="n">
-        <v>37.11101095890411</v>
+        <v>36.22893150684931</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -646,10 +646,10 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>30.351</v>
+        <v>29.101</v>
       </c>
       <c r="L4" t="n">
-        <v>30.351</v>
+        <v>29.101</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -764,22 +764,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6.105850000000001</v>
+        <v>6.166850000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>2.4228</v>
+        <v>2.487</v>
       </c>
       <c r="D2" t="n">
-        <v>31.0095</v>
+        <v>30.87284999999999</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>26.66245</v>
+        <v>25.3809</v>
       </c>
       <c r="G2" t="n">
-        <v>26.66245</v>
+        <v>25.3809</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -791,19 +791,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>190.6856</v>
+        <v>185.9264</v>
       </c>
       <c r="L2" t="n">
-        <v>26.662</v>
+        <v>25.381</v>
       </c>
       <c r="M2" t="n">
-        <v>164.0236</v>
+        <v>160.5454</v>
       </c>
       <c r="N2" t="n">
-        <v>9.095200000000002</v>
+        <v>9.0854</v>
       </c>
       <c r="O2" t="n">
-        <v>154.9282</v>
+        <v>151.46</v>
       </c>
     </row>
     <row r="3">
@@ -813,43 +813,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>13.982</v>
+        <v>14.045</v>
       </c>
       <c r="C3" t="n">
-        <v>3.332</v>
+        <v>3.349</v>
       </c>
       <c r="D3" t="n">
-        <v>53.656</v>
+        <v>53.613</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>28.598</v>
+        <v>27.318</v>
       </c>
       <c r="G3" t="n">
-        <v>28.111</v>
+        <v>26.829</v>
       </c>
       <c r="H3" t="n">
-        <v>0.487</v>
+        <v>0.489</v>
       </c>
       <c r="I3" t="n">
-        <v>0.487</v>
+        <v>0.489</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>33.9136</v>
+        <v>32.6484</v>
       </c>
       <c r="L3" t="n">
-        <v>28.111</v>
+        <v>26.829</v>
       </c>
       <c r="M3" t="n">
-        <v>5.8026</v>
+        <v>5.8194</v>
       </c>
       <c r="N3" t="n">
-        <v>5.8026</v>
+        <v>5.8194</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -862,22 +862,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19.701</v>
+        <v>19.833</v>
       </c>
       <c r="C4" t="n">
-        <v>2.777</v>
+        <v>4.341</v>
       </c>
       <c r="D4" t="n">
-        <v>53.925</v>
+        <v>50.695</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>32.838</v>
+        <v>31.69</v>
       </c>
       <c r="G4" t="n">
-        <v>32.83793698630137</v>
+        <v>31.68977260273973</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -889,16 +889,16 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>32.2304</v>
+        <v>30.9632</v>
       </c>
       <c r="L4" t="n">
-        <v>28.774</v>
+        <v>27.506</v>
       </c>
       <c r="M4" t="n">
-        <v>3.4564</v>
+        <v>3.4572</v>
       </c>
       <c r="N4" t="n">
-        <v>3.4564</v>
+        <v>3.4572</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -1007,22 +1007,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7.60445</v>
+        <v>7.666199999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>2.5658</v>
+        <v>3.051099999999999</v>
       </c>
       <c r="D2" t="n">
-        <v>29.0083</v>
+        <v>28.0064</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>26.8069</v>
+        <v>25.52699999999999</v>
       </c>
       <c r="G2" t="n">
-        <v>26.8069</v>
+        <v>25.52699999999999</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -1034,16 +1034,16 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>33.338</v>
+        <v>32.088</v>
       </c>
       <c r="L2" t="n">
-        <v>26.807</v>
+        <v>25.527</v>
       </c>
       <c r="M2" t="n">
-        <v>6.531000000000001</v>
+        <v>6.561</v>
       </c>
       <c r="N2" t="n">
-        <v>6.531000000000001</v>
+        <v>6.561</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>19.701</v>
+        <v>19.795</v>
       </c>
       <c r="C3" t="n">
-        <v>2.777</v>
+        <v>5.553</v>
       </c>
       <c r="D3" t="n">
-        <v>53.925</v>
+        <v>48.213</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>29.638</v>
+        <v>28.37</v>
       </c>
       <c r="G3" t="n">
-        <v>28.774</v>
+        <v>27.507</v>
       </c>
       <c r="H3" t="n">
         <v>0.864</v>
@@ -1083,10 +1083,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>28.774</v>
+        <v>27.507</v>
       </c>
       <c r="L3" t="n">
-        <v>28.774</v>
+        <v>27.507</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -1105,22 +1105,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>33.063</v>
+        <v>33.213</v>
       </c>
       <c r="C4" t="n">
-        <v>3.664</v>
+        <v>9.318</v>
       </c>
       <c r="D4" t="n">
-        <v>50.966</v>
+        <v>39.359</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>37.111</v>
+        <v>36.229</v>
       </c>
       <c r="G4" t="n">
-        <v>37.11101095890411</v>
+        <v>36.22893150684931</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -1132,10 +1132,10 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>30.351</v>
+        <v>29.101</v>
       </c>
       <c r="L4" t="n">
-        <v>30.351</v>
+        <v>29.101</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -1250,22 +1250,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8.1694</v>
+        <v>8.2424</v>
       </c>
       <c r="C2" t="n">
-        <v>2.20705</v>
+        <v>2.6334</v>
       </c>
       <c r="D2" t="n">
-        <v>30.5072</v>
+        <v>29.6254</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>26.88870000000001</v>
+        <v>25.60984999999999</v>
       </c>
       <c r="G2" t="n">
-        <v>26.88870000000001</v>
+        <v>25.60984999999999</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -1277,16 +1277,16 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>29.6126</v>
+        <v>28.2338</v>
       </c>
       <c r="L2" t="n">
-        <v>26.889</v>
+        <v>25.61</v>
       </c>
       <c r="M2" t="n">
-        <v>2.7236</v>
+        <v>2.6238</v>
       </c>
       <c r="N2" t="n">
-        <v>2.7236</v>
+        <v>2.6238</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -1299,22 +1299,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>19.701</v>
+        <v>19.795</v>
       </c>
       <c r="C3" t="n">
-        <v>2.777</v>
+        <v>5.553</v>
       </c>
       <c r="D3" t="n">
-        <v>53.925</v>
+        <v>48.213</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>29.638</v>
+        <v>28.37</v>
       </c>
       <c r="G3" t="n">
-        <v>28.774</v>
+        <v>27.507</v>
       </c>
       <c r="H3" t="n">
         <v>0.864</v>
@@ -1326,10 +1326,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>28.774</v>
+        <v>27.507</v>
       </c>
       <c r="L3" t="n">
-        <v>28.774</v>
+        <v>27.507</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -1348,22 +1348,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>33.063</v>
+        <v>33.213</v>
       </c>
       <c r="C4" t="n">
-        <v>3.664</v>
+        <v>9.318</v>
       </c>
       <c r="D4" t="n">
-        <v>50.966</v>
+        <v>39.359</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>37.111</v>
+        <v>36.229</v>
       </c>
       <c r="G4" t="n">
-        <v>37.11101095890411</v>
+        <v>36.22893150684931</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -1375,10 +1375,10 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>30.351</v>
+        <v>29.101</v>
       </c>
       <c r="L4" t="n">
-        <v>30.351</v>
+        <v>29.101</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -1493,22 +1493,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7.9104</v>
+        <v>7.979699999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>2.18885</v>
+        <v>2.54125</v>
       </c>
       <c r="D2" t="n">
-        <v>30.69804999999999</v>
+        <v>29.97015</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>26.8609</v>
+        <v>25.58135</v>
       </c>
       <c r="G2" t="n">
-        <v>26.8609</v>
+        <v>25.58135</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -1520,19 +1520,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>75.6074</v>
+        <v>63.89019999999999</v>
       </c>
       <c r="L2" t="n">
-        <v>26.861</v>
+        <v>25.581</v>
       </c>
       <c r="M2" t="n">
-        <v>48.7464</v>
+        <v>38.3092</v>
       </c>
       <c r="N2" t="n">
-        <v>3.4554</v>
+        <v>3.4746</v>
       </c>
       <c r="O2" t="n">
-        <v>45.291</v>
+        <v>34.8346</v>
       </c>
     </row>
     <row r="3">
@@ -1542,46 +1542,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>19.72</v>
+        <v>19.795</v>
       </c>
       <c r="C3" t="n">
-        <v>2.185</v>
+        <v>5.553</v>
       </c>
       <c r="D3" t="n">
-        <v>53.488</v>
+        <v>46.576</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>29.603</v>
+        <v>28.337</v>
       </c>
       <c r="G3" t="n">
-        <v>28.74</v>
+        <v>27.473</v>
       </c>
       <c r="H3" t="n">
-        <v>0.863</v>
+        <v>0.864</v>
       </c>
       <c r="I3" t="n">
-        <v>0.863</v>
+        <v>0.864</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>40.7422</v>
+        <v>27.6134</v>
       </c>
       <c r="L3" t="n">
-        <v>28.74</v>
+        <v>27.473</v>
       </c>
       <c r="M3" t="n">
-        <v>12.0022</v>
+        <v>0.1404</v>
       </c>
       <c r="N3" t="n">
-        <v>0.196</v>
+        <v>0.1404</v>
       </c>
       <c r="O3" t="n">
-        <v>11.8062</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1591,22 +1591,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>33.063</v>
+        <v>33.213</v>
       </c>
       <c r="C4" t="n">
-        <v>3.664</v>
+        <v>9.318</v>
       </c>
       <c r="D4" t="n">
-        <v>50.454</v>
+        <v>38.85</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>37.1</v>
+        <v>36.218</v>
       </c>
       <c r="G4" t="n">
-        <v>37.10048493150685</v>
+        <v>36.21846575342466</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -1618,16 +1618,16 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>30.3838</v>
+        <v>29.13460000000001</v>
       </c>
       <c r="L4" t="n">
-        <v>30.34</v>
+        <v>29.091</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0438</v>
+        <v>0.0436</v>
       </c>
       <c r="N4" t="n">
-        <v>0.0438</v>
+        <v>0.0436</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>

--- a/SA_Capacity_Costs/SA_Capacity_Costs_LPLB.xlsx
+++ b/SA_Capacity_Costs/SA_Capacity_Costs_LPLB.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet name="Fold_1" sheetId="1" state="visible" r:id="rId1"/>
@@ -57,18 +57,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -521,43 +521,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6.839249999999998</v>
+        <v>7.549350000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>2.677449999999999</v>
+        <v>19.60685</v>
       </c>
       <c r="D2" t="n">
-        <v>30.92719999999999</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>25.4711</v>
+        <v>1646.19175</v>
       </c>
       <c r="G2" t="n">
-        <v>25.4711</v>
+        <v>1530.8384</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>115.35335</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>115.35335</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>33.4516</v>
+        <v>1770.852</v>
       </c>
       <c r="L2" t="n">
-        <v>25.471</v>
+        <v>1530.84</v>
       </c>
       <c r="M2" t="n">
-        <v>7.9806</v>
+        <v>240.012</v>
       </c>
       <c r="N2" t="n">
-        <v>7.9806</v>
+        <v>240.012</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -570,43 +570,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16.919</v>
+        <v>7.474</v>
       </c>
       <c r="C3" t="n">
-        <v>4.097</v>
+        <v>19.936</v>
       </c>
       <c r="D3" t="n">
-        <v>51.64</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>28.217</v>
+        <v>1670.485</v>
       </c>
       <c r="G3" t="n">
-        <v>27.166</v>
+        <v>1533.09</v>
       </c>
       <c r="H3" t="n">
-        <v>1.05</v>
+        <v>137.395</v>
       </c>
       <c r="I3" t="n">
-        <v>1.05</v>
+        <v>137.395</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>28.1494</v>
+        <v>1771.008</v>
       </c>
       <c r="L3" t="n">
-        <v>27.167</v>
+        <v>1533.085</v>
       </c>
       <c r="M3" t="n">
-        <v>0.9823999999999999</v>
+        <v>237.923</v>
       </c>
       <c r="N3" t="n">
-        <v>0.9823999999999999</v>
+        <v>237.923</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -619,50 +619,50 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>33.213</v>
+        <v>8.474</v>
       </c>
       <c r="C4" t="n">
-        <v>9.318</v>
+        <v>22.036</v>
       </c>
       <c r="D4" t="n">
-        <v>39.359</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>36.229</v>
+        <v>2899.042</v>
       </c>
       <c r="G4" t="n">
-        <v>36.22893150684931</v>
+        <v>2704.409</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>194.633</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>194.633</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>29.101</v>
+        <v>1764.514</v>
       </c>
       <c r="L4" t="n">
-        <v>29.101</v>
+        <v>1611.981</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>152.533</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>152.533</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -764,46 +764,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6.166850000000001</v>
+        <v>7.691049999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>2.487</v>
+        <v>19.82215</v>
       </c>
       <c r="D2" t="n">
-        <v>30.87284999999999</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>25.3809</v>
+        <v>1662.85175</v>
       </c>
       <c r="G2" t="n">
-        <v>25.3809</v>
+        <v>1540.6362</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>122.2156</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>122.2156</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>185.9264</v>
+        <v>1688.2464</v>
       </c>
       <c r="L2" t="n">
-        <v>25.381</v>
+        <v>1540.637</v>
       </c>
       <c r="M2" t="n">
-        <v>160.5454</v>
+        <v>147.6094</v>
       </c>
       <c r="N2" t="n">
-        <v>9.0854</v>
+        <v>147.6094</v>
       </c>
       <c r="O2" t="n">
-        <v>151.46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -813,43 +813,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>14.045</v>
+        <v>7.474</v>
       </c>
       <c r="C3" t="n">
-        <v>3.349</v>
+        <v>20.156</v>
       </c>
       <c r="D3" t="n">
-        <v>53.613</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>27.318</v>
+        <v>1690.613</v>
       </c>
       <c r="G3" t="n">
-        <v>26.829</v>
+        <v>1536.79</v>
       </c>
       <c r="H3" t="n">
-        <v>0.489</v>
+        <v>153.823</v>
       </c>
       <c r="I3" t="n">
-        <v>0.489</v>
+        <v>153.823</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>32.6484</v>
+        <v>1689.9484</v>
       </c>
       <c r="L3" t="n">
-        <v>26.829</v>
+        <v>1536.782</v>
       </c>
       <c r="M3" t="n">
-        <v>5.8194</v>
+        <v>153.1664</v>
       </c>
       <c r="N3" t="n">
-        <v>5.8194</v>
+        <v>153.1664</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -862,50 +862,50 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19.833</v>
+        <v>10.182</v>
       </c>
       <c r="C4" t="n">
-        <v>4.341</v>
+        <v>24.798</v>
       </c>
       <c r="D4" t="n">
-        <v>50.695</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>31.69</v>
+        <v>3125.046</v>
       </c>
       <c r="G4" t="n">
-        <v>31.68977260273973</v>
+        <v>3008.87</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>116.176</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>116.176</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>30.9632</v>
+        <v>1766.4306</v>
       </c>
       <c r="L4" t="n">
-        <v>27.506</v>
+        <v>1732.876</v>
       </c>
       <c r="M4" t="n">
-        <v>3.4572</v>
+        <v>33.55460000000001</v>
       </c>
       <c r="N4" t="n">
-        <v>3.4572</v>
+        <v>33.55460000000001</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -1007,43 +1007,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7.666199999999999</v>
+        <v>7.54975</v>
       </c>
       <c r="C2" t="n">
-        <v>3.051099999999999</v>
+        <v>19.368</v>
       </c>
       <c r="D2" t="n">
-        <v>28.0064</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>25.52699999999999</v>
+        <v>1645.1377</v>
       </c>
       <c r="G2" t="n">
-        <v>25.52699999999999</v>
+        <v>1526.8436</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>118.29415</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>118.29415</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>32.088</v>
+        <v>1768.6082</v>
       </c>
       <c r="L2" t="n">
-        <v>25.527</v>
+        <v>1526.844</v>
       </c>
       <c r="M2" t="n">
-        <v>6.561</v>
+        <v>241.7642</v>
       </c>
       <c r="N2" t="n">
-        <v>6.561</v>
+        <v>241.7642</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -1056,43 +1056,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>19.795</v>
+        <v>7.54</v>
       </c>
       <c r="C3" t="n">
-        <v>5.553</v>
+        <v>19.484</v>
       </c>
       <c r="D3" t="n">
-        <v>48.213</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>28.37</v>
+        <v>1671.738</v>
       </c>
       <c r="G3" t="n">
-        <v>27.507</v>
+        <v>1528.374</v>
       </c>
       <c r="H3" t="n">
-        <v>0.864</v>
+        <v>143.364</v>
       </c>
       <c r="I3" t="n">
-        <v>0.864</v>
+        <v>143.364</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>27.507</v>
+        <v>1767.7282</v>
       </c>
       <c r="L3" t="n">
-        <v>27.507</v>
+        <v>1528.368</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>239.3602</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>239.3602</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -1105,50 +1105,50 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>33.213</v>
+        <v>10.182</v>
       </c>
       <c r="C4" t="n">
-        <v>9.318</v>
+        <v>24.798</v>
       </c>
       <c r="D4" t="n">
-        <v>39.359</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>36.229</v>
+        <v>3125.046</v>
       </c>
       <c r="G4" t="n">
-        <v>36.22893150684931</v>
+        <v>3008.87</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>116.176</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>116.176</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>29.101</v>
+        <v>1797.4164</v>
       </c>
       <c r="L4" t="n">
-        <v>29.101</v>
+        <v>1732.876</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>64.54040000000001</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>64.54040000000001</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -1250,43 +1250,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8.2424</v>
+        <v>8.042449999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>2.6334</v>
+        <v>20.22765</v>
       </c>
       <c r="D2" t="n">
-        <v>29.6254</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>25.60984999999999</v>
+        <v>1693.68745</v>
       </c>
       <c r="G2" t="n">
-        <v>25.60984999999999</v>
+        <v>1562.7734</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>130.91405</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>130.91405</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>28.2338</v>
+        <v>1601.874</v>
       </c>
       <c r="L2" t="n">
-        <v>25.61</v>
+        <v>1562.775</v>
       </c>
       <c r="M2" t="n">
-        <v>2.6238</v>
+        <v>39.099</v>
       </c>
       <c r="N2" t="n">
-        <v>2.6238</v>
+        <v>39.099</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -1299,43 +1299,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>19.795</v>
+        <v>8.124000000000001</v>
       </c>
       <c r="C3" t="n">
-        <v>5.553</v>
+        <v>20.178</v>
       </c>
       <c r="D3" t="n">
-        <v>48.213</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>28.37</v>
+        <v>1713.937</v>
       </c>
       <c r="G3" t="n">
-        <v>27.507</v>
+        <v>1565.507</v>
       </c>
       <c r="H3" t="n">
-        <v>0.864</v>
+        <v>148.43</v>
       </c>
       <c r="I3" t="n">
-        <v>0.864</v>
+        <v>148.43</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>27.507</v>
+        <v>1603.7448</v>
       </c>
       <c r="L3" t="n">
-        <v>27.507</v>
+        <v>1565.497</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>38.24780000000001</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>38.24780000000001</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -1348,50 +1348,50 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>33.213</v>
+        <v>10.182</v>
       </c>
       <c r="C4" t="n">
-        <v>9.318</v>
+        <v>24.798</v>
       </c>
       <c r="D4" t="n">
-        <v>39.359</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>36.229</v>
+        <v>3125.046</v>
       </c>
       <c r="G4" t="n">
-        <v>36.22893150684931</v>
+        <v>3008.87</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>116.176</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>116.176</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>29.101</v>
+        <v>1734.55</v>
       </c>
       <c r="L4" t="n">
-        <v>29.101</v>
+        <v>1732.876</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>1.674</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>1.674</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -1493,46 +1493,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7.979699999999999</v>
+        <v>7.793799999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>2.54125</v>
+        <v>20.31135</v>
       </c>
       <c r="D2" t="n">
-        <v>29.97015</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>25.58135</v>
+        <v>1678.75975</v>
       </c>
       <c r="G2" t="n">
-        <v>25.58135</v>
+        <v>1553.339</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>125.42085</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>125.42085</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>63.89019999999999</v>
+        <v>1645.605</v>
       </c>
       <c r="L2" t="n">
-        <v>25.581</v>
+        <v>1553.338</v>
       </c>
       <c r="M2" t="n">
-        <v>38.3092</v>
+        <v>92.267</v>
       </c>
       <c r="N2" t="n">
-        <v>3.4746</v>
+        <v>92.267</v>
       </c>
       <c r="O2" t="n">
-        <v>34.8346</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1542,43 +1542,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>19.795</v>
+        <v>7.746</v>
       </c>
       <c r="C3" t="n">
-        <v>5.553</v>
+        <v>20.343</v>
       </c>
       <c r="D3" t="n">
-        <v>46.576</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>28.337</v>
+        <v>1701.989</v>
       </c>
       <c r="G3" t="n">
-        <v>27.473</v>
+        <v>1551.776</v>
       </c>
       <c r="H3" t="n">
-        <v>0.864</v>
+        <v>150.214</v>
       </c>
       <c r="I3" t="n">
-        <v>0.864</v>
+        <v>150.214</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>27.6134</v>
+        <v>1645.1572</v>
       </c>
       <c r="L3" t="n">
-        <v>27.473</v>
+        <v>1551.786</v>
       </c>
       <c r="M3" t="n">
-        <v>0.1404</v>
+        <v>93.37120000000002</v>
       </c>
       <c r="N3" t="n">
-        <v>0.1404</v>
+        <v>93.37120000000002</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -1591,49 +1591,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>33.213</v>
+        <v>10.182</v>
       </c>
       <c r="C4" t="n">
-        <v>9.318</v>
+        <v>24.798</v>
       </c>
       <c r="D4" t="n">
-        <v>38.85</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>36.218</v>
+        <v>3125.046</v>
       </c>
       <c r="G4" t="n">
-        <v>36.21846575342466</v>
+        <v>3008.87</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>116.176</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>116.176</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>29.13460000000001</v>
+        <v>1755.0572</v>
       </c>
       <c r="L4" t="n">
-        <v>29.091</v>
+        <v>1732.876</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0436</v>
+        <v>22.1812</v>
       </c>
       <c r="N4" t="n">
-        <v>0.0436</v>
+        <v>22.1812</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>